--- a/01_input/PPP_results_clean_2025_02_14.xlsx
+++ b/01_input/PPP_results_clean_2025_02_14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f304f79f068e311c/Universitaet/MASTER/MasterThesis/11_Data_Analysis_MA/01_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_B89231273C696DEA78553CF1239F1D7C7A5C582E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3013D0B6-46C4-4E0A-B0B6-C93292C40FB7}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_B89231273C696DEA78553CF1239F1D7C7A5C582E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24DA4981-D7E7-42DA-9AAB-ADBED2979889}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57495" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1037,7 +1037,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:GL33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FX1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:GL1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -5129,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:194" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:194" hidden="1" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -5713,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:194" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:194" hidden="1" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -20320,8 +20322,6 @@
         <filter val="2_1_1"/>
         <filter val="2_1_2"/>
         <filter val="2_1_3"/>
-        <filter val="2_2_1"/>
-        <filter val="2_2_3"/>
       </filters>
     </filterColumn>
   </autoFilter>
